--- a/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/19.Lô 1-2024/A7672S/500TB_TG102LE_ESIM_161024 (1).xlsx
+++ b/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/19.Lô 1-2024/A7672S/500TB_TG102LE_ESIM_161024 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\2. Báo cáo - bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Danh Sách IMEI nhập kho\19.Lô 1-2024\A7672S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5162A3F3-FC87-423A-BED4-7A5AE37AC6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663BAEF4-4447-4783-B83C-4C3A9D7A5FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="2276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="2323">
   <si>
     <t>84842601263</t>
   </si>
@@ -1872,9 +1872,6 @@
     <t>006011074327438</t>
   </si>
   <si>
-    <t>984020001150017097</t>
-  </si>
-  <si>
     <t>84842603716</t>
   </si>
   <si>
@@ -6862,13 +6859,157 @@
   </si>
   <si>
     <t>007785070569317</t>
+  </si>
+  <si>
+    <t>007785070573426</t>
+  </si>
+  <si>
+    <t>007785070561504</t>
+  </si>
+  <si>
+    <t>007785070592517</t>
+  </si>
+  <si>
+    <t>007785070573277</t>
+  </si>
+  <si>
+    <t>007785070574572</t>
+  </si>
+  <si>
+    <t>007785070573327</t>
+  </si>
+  <si>
+    <t>007785070591444</t>
+  </si>
+  <si>
+    <t>007785070567139</t>
+  </si>
+  <si>
+    <t>007785070588416</t>
+  </si>
+  <si>
+    <t>007785070564540</t>
+  </si>
+  <si>
+    <t>007785070573335</t>
+  </si>
+  <si>
+    <t>007785070588424</t>
+  </si>
+  <si>
+    <t>007785070573129</t>
+  </si>
+  <si>
+    <t>007785070592871</t>
+  </si>
+  <si>
+    <t>007785070573046</t>
+  </si>
+  <si>
+    <t>007785070570844</t>
+  </si>
+  <si>
+    <t>007785070573269</t>
+  </si>
+  <si>
+    <t>007785070592533</t>
+  </si>
+  <si>
+    <t>007785070573343</t>
+  </si>
+  <si>
+    <t>007785070588762</t>
+  </si>
+  <si>
+    <t>007785070591501</t>
+  </si>
+  <si>
+    <t>007785070591451</t>
+  </si>
+  <si>
+    <t>007785070571073</t>
+  </si>
+  <si>
+    <t>007785070571016</t>
+  </si>
+  <si>
+    <t>007785070564623</t>
+  </si>
+  <si>
+    <t>007785070564649</t>
+  </si>
+  <si>
+    <t>007785070564573</t>
+  </si>
+  <si>
+    <t>007785070574747</t>
+  </si>
+  <si>
+    <t>007785070570828</t>
+  </si>
+  <si>
+    <t>007785070571008</t>
+  </si>
+  <si>
+    <t>007785070592541</t>
+  </si>
+  <si>
+    <t>007785070592939</t>
+  </si>
+  <si>
+    <t>007785070571040</t>
+  </si>
+  <si>
+    <t>007785070569549</t>
+  </si>
+  <si>
+    <t>007785070573475</t>
+  </si>
+  <si>
+    <t>007785070573061</t>
+  </si>
+  <si>
+    <t>007785070570711</t>
+  </si>
+  <si>
+    <t>007785070591386</t>
+  </si>
+  <si>
+    <t>007785070573467</t>
+  </si>
+  <si>
+    <t>007785070560555</t>
+  </si>
+  <si>
+    <t>007785070570091</t>
+  </si>
+  <si>
+    <t>007785070565794</t>
+  </si>
+  <si>
+    <t>007785070592491</t>
+  </si>
+  <si>
+    <t>007785070583524</t>
+  </si>
+  <si>
+    <t>8984020001150017097</t>
+  </si>
+  <si>
+    <t>007785070566255</t>
+  </si>
+  <si>
+    <t>007785070566438</t>
+  </si>
+  <si>
+    <t>007785070592681</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6950,6 +7091,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6965,7 +7118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -7001,11 +7154,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7071,9 +7237,6 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7097,6 +7260,18 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8283,7 +8458,7 @@
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="38.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="25" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -8297,7 +8472,7 @@
       <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -8306,767 +8481,767 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="11" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>1773</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>1774</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="24" t="s">
         <v>1775</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>1776</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="11" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>1777</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>1778</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="24" t="s">
         <v>1779</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>1780</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="11" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>1781</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>1782</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="24" t="s">
         <v>1783</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>1784</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="11" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>1785</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>1786</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="24" t="s">
         <v>1787</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>1788</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>1789</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>1790</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="24" t="s">
         <v>1791</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>1792</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="11" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>1793</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>1794</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="24" t="s">
         <v>1795</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>1796</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>1797</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>1798</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="24" t="s">
         <v>1799</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>1800</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>1801</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>1802</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="24" t="s">
         <v>1803</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>1804</v>
-      </c>
       <c r="E9" s="13" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="11" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>1805</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>1806</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="24" t="s">
         <v>1807</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>1808</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>1809</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>1810</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="24" t="s">
         <v>1811</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>1812</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>1813</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>1814</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="24" t="s">
         <v>1815</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>1816</v>
-      </c>
       <c r="E12" s="13" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>1817</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>1818</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="24" t="s">
         <v>1819</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>1820</v>
-      </c>
       <c r="E13" s="13" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>1821</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>1822</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="24" t="s">
         <v>1823</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>1824</v>
-      </c>
       <c r="E14" s="13" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>1825</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>1826</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="24" t="s">
         <v>1827</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>1828</v>
-      </c>
       <c r="E15" s="13" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>1829</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>1830</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="24" t="s">
         <v>1831</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>1832</v>
-      </c>
       <c r="E16" s="13" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>1833</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>1834</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="24" t="s">
         <v>1835</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>1836</v>
-      </c>
       <c r="E17" s="13" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>1837</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>1838</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="24" t="s">
         <v>1839</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>1840</v>
-      </c>
       <c r="E18" s="13" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>1841</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>1842</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="24" t="s">
         <v>1843</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>1844</v>
-      </c>
       <c r="E19" s="13" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="11" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>1845</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>1846</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="24" t="s">
         <v>1847</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>1848</v>
-      </c>
       <c r="E20" s="13" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>1849</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>1850</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="24" t="s">
         <v>1851</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>1852</v>
-      </c>
       <c r="E21" s="13" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="11" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>1853</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>1854</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="24" t="s">
         <v>1855</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>1856</v>
-      </c>
       <c r="E22" s="13" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="11" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>1857</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>1858</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="24" t="s">
         <v>1859</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>1860</v>
-      </c>
       <c r="E23" s="13" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="11" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>1861</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>1862</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="24" t="s">
         <v>1863</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>1864</v>
-      </c>
       <c r="E24" s="13" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="11" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>1865</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>1866</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="24" t="s">
         <v>1867</v>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>1868</v>
-      </c>
       <c r="E25" s="13" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="12" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>1869</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="C26" s="13" t="s">
         <v>1870</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="24" t="s">
         <v>1871</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>1872</v>
-      </c>
       <c r="E26" s="13" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="12" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>1873</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="C27" s="13" t="s">
         <v>1874</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="24" t="s">
         <v>1875</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>1876</v>
-      </c>
       <c r="E27" s="13" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="12" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>1877</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>1878</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="24" t="s">
         <v>1879</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>1880</v>
-      </c>
       <c r="E28" s="13" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="12" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>1881</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>1882</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="D29" s="24" t="s">
         <v>1883</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>1884</v>
-      </c>
       <c r="E29" s="13" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="12" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>1885</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="C30" s="13" t="s">
         <v>1886</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="D30" s="24" t="s">
         <v>1887</v>
       </c>
-      <c r="D30" s="25" t="s">
-        <v>1888</v>
-      </c>
       <c r="E30" s="13" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="12" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>1889</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="13" t="s">
         <v>1890</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="24" t="s">
         <v>1891</v>
       </c>
-      <c r="D31" s="25" t="s">
-        <v>1892</v>
-      </c>
       <c r="E31" s="13" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="12" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>1893</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="C32" s="13" t="s">
         <v>1894</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="24" t="s">
         <v>1895</v>
       </c>
-      <c r="D32" s="25" t="s">
-        <v>1896</v>
-      </c>
       <c r="E32" s="13" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="12" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>1897</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="C33" s="13" t="s">
         <v>1898</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="24" t="s">
         <v>1899</v>
       </c>
-      <c r="D33" s="25" t="s">
-        <v>1900</v>
-      </c>
       <c r="E33" s="13" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="11" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>1901</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>1902</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="D34" s="24" t="s">
         <v>1903</v>
       </c>
-      <c r="D34" s="25" t="s">
-        <v>1904</v>
-      </c>
       <c r="E34" s="13" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="11" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>1905</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>1906</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="D35" s="24" t="s">
         <v>1907</v>
       </c>
-      <c r="D35" s="25" t="s">
-        <v>1908</v>
-      </c>
       <c r="E35" s="13" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="11" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>1909</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="C36" s="13" t="s">
         <v>1910</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="24" t="s">
         <v>1911</v>
       </c>
-      <c r="D36" s="25" t="s">
-        <v>1912</v>
-      </c>
       <c r="E36" s="13" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="11" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>1913</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="C37" s="13" t="s">
         <v>1914</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="24" t="s">
         <v>1915</v>
       </c>
-      <c r="D37" s="25" t="s">
-        <v>1916</v>
-      </c>
       <c r="E37" s="13" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="11" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>1917</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="C38" s="13" t="s">
         <v>1918</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="D38" s="24" t="s">
         <v>1919</v>
       </c>
-      <c r="D38" s="25" t="s">
-        <v>1920</v>
-      </c>
       <c r="E38" s="13" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="11" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>1921</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="C39" s="13" t="s">
         <v>1922</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="D39" s="24" t="s">
         <v>1923</v>
       </c>
-      <c r="D39" s="25" t="s">
-        <v>1924</v>
-      </c>
       <c r="E39" s="13" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="11" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>1925</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="C40" s="13" t="s">
         <v>1926</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="D40" s="24" t="s">
         <v>1927</v>
       </c>
-      <c r="D40" s="25" t="s">
-        <v>1928</v>
-      </c>
       <c r="E40" s="13" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="11" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>1929</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="C41" s="13" t="s">
         <v>1930</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="D41" s="24" t="s">
         <v>1931</v>
       </c>
-      <c r="D41" s="25" t="s">
-        <v>1932</v>
-      </c>
       <c r="E41" s="13" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="11" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>1933</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="C42" s="13" t="s">
         <v>1934</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="D42" s="24" t="s">
         <v>1935</v>
       </c>
-      <c r="D42" s="25" t="s">
-        <v>1936</v>
-      </c>
       <c r="E42" s="13" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="11" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>1937</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="C43" s="13" t="s">
         <v>1938</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="D43" s="24" t="s">
         <v>1939</v>
       </c>
-      <c r="D43" s="25" t="s">
-        <v>1940</v>
-      </c>
       <c r="E43" s="13" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="11" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>1941</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="C44" s="13" t="s">
         <v>1942</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="D44" s="24" t="s">
         <v>1943</v>
       </c>
-      <c r="D44" s="25" t="s">
-        <v>1944</v>
-      </c>
       <c r="E44" s="13" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="11" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>1945</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="C45" s="13" t="s">
         <v>1946</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="D45" s="24" t="s">
         <v>1947</v>
       </c>
-      <c r="D45" s="25" t="s">
-        <v>1948</v>
-      </c>
       <c r="E45" s="13" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="11" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>1949</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="C46" s="13" t="s">
         <v>1950</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="D46" s="24" t="s">
         <v>1951</v>
       </c>
-      <c r="D46" s="25" t="s">
-        <v>1952</v>
-      </c>
       <c r="E46" s="13" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -9074,84 +9249,84 @@
         <v>84842603926</v>
       </c>
       <c r="B47" s="12" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>1953</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="D47" s="24" t="s">
         <v>1954</v>
       </c>
-      <c r="D47" s="25" t="s">
-        <v>1955</v>
-      </c>
       <c r="E47" s="13" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="11" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>1956</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="C48" s="13" t="s">
         <v>1957</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="D48" s="24" t="s">
         <v>1958</v>
       </c>
-      <c r="D48" s="25" t="s">
-        <v>1959</v>
-      </c>
       <c r="E48" s="13" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="11" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>1960</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="C49" s="13" t="s">
         <v>1961</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="D49" s="24" t="s">
         <v>1962</v>
       </c>
-      <c r="D49" s="25" t="s">
-        <v>1963</v>
-      </c>
       <c r="E49" s="13" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="12" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B50" s="21" t="s">
         <v>1964</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="C50" s="13" t="s">
         <v>1965</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="D50" s="24" t="s">
         <v>1966</v>
       </c>
-      <c r="D50" s="25" t="s">
-        <v>1967</v>
-      </c>
       <c r="E50" s="13" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="12" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B51" s="21" t="s">
         <v>1968</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="C51" s="13" t="s">
         <v>1969</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="D51" s="24" t="s">
         <v>1970</v>
       </c>
-      <c r="D51" s="25" t="s">
-        <v>1971</v>
-      </c>
       <c r="E51" s="13" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
   </sheetData>
@@ -10270,16 +10445,16 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="11" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>1475</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>1476</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>485</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -10641,8 +10816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -10651,7 +10826,7 @@
     <col min="2" max="2" width="31.5703125" style="6" customWidth="1"/>
     <col min="3" max="3" width="36.5703125" style="5" customWidth="1"/>
     <col min="4" max="4" width="40.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -10668,6 +10843,9 @@
       <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="E1" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="11" t="s">
@@ -10682,6 +10860,9 @@
       <c r="D2" s="13" t="s">
         <v>588</v>
       </c>
+      <c r="E2" s="34" t="s">
+        <v>2292</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="11" t="s">
@@ -10696,6 +10877,9 @@
       <c r="D3" s="13" t="s">
         <v>592</v>
       </c>
+      <c r="E3" s="34" t="s">
+        <v>2299</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="11" t="s">
@@ -10710,6 +10894,9 @@
       <c r="D4" s="13" t="s">
         <v>596</v>
       </c>
+      <c r="E4" s="34" t="s">
+        <v>2306</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="11" t="s">
@@ -10724,6 +10911,9 @@
       <c r="D5" s="13" t="s">
         <v>600</v>
       </c>
+      <c r="E5" s="34" t="s">
+        <v>2321</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
@@ -10738,6 +10928,9 @@
       <c r="D6" s="13" t="s">
         <v>604</v>
       </c>
+      <c r="E6" s="34" t="s">
+        <v>2314</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="11" t="s">
@@ -10752,6 +10945,9 @@
       <c r="D7" s="13" t="s">
         <v>608</v>
       </c>
+      <c r="E7" s="34" t="s">
+        <v>2316</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
@@ -10764,164 +10960,197 @@
         <v>611</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>612</v>
+        <v>2319</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>2320</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>615</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>616</v>
+      <c r="E9" s="34" t="s">
+        <v>2282</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="11" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>1678</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>1679</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>1680</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>1681</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>2222</v>
+      <c r="E10" s="32" t="s">
+        <v>2221</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>624</v>
+      <c r="E11" s="34" t="s">
+        <v>2293</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>627</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>628</v>
+      <c r="E12" s="34" t="s">
+        <v>2295</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>631</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>632</v>
+      <c r="E13" s="34" t="s">
+        <v>2288</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>635</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>636</v>
+      <c r="E14" s="34" t="s">
+        <v>2275</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>637</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>638</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>639</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>640</v>
+      <c r="E15" s="34" t="s">
+        <v>2279</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>641</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>642</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>643</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>644</v>
+      <c r="E16" s="34" t="s">
+        <v>2280</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>645</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>647</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>648</v>
+      <c r="E17" s="34" t="s">
+        <v>2302</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>649</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>650</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>651</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>652</v>
+      <c r="E18" s="34" t="s">
+        <v>2308</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>653</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>656</v>
+      <c r="E19" s="34" t="s">
+        <v>2291</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -10929,13 +11158,16 @@
         <v>84847816057</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>658</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>659</v>
+      <c r="E20" s="34" t="s">
+        <v>2305</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -10943,439 +11175,529 @@
         <v>84842601051</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>662</v>
+      <c r="E21" s="34" t="s">
+        <v>2303</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D22" s="29" t="s">
+      <c r="C22" s="28" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D22" s="28" t="s">
         <v>486</v>
       </c>
-      <c r="E22" s="29" t="s">
-        <v>2274</v>
-      </c>
-      <c r="F22" s="30" t="s">
+      <c r="E22" s="33" t="s">
         <v>2273</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>2272</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>667</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>668</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>669</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>670</v>
+      <c r="E23" s="34" t="s">
+        <v>2315</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>671</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>673</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>674</v>
+      <c r="E24" s="34" t="s">
+        <v>2281</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>675</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>676</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>678</v>
+      <c r="E25" s="34" t="s">
+        <v>2287</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>679</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="C26" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>681</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>682</v>
+      <c r="E26" s="34" t="s">
+        <v>2322</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="C27" s="13" t="s">
         <v>684</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>686</v>
+      <c r="E27" s="34" t="s">
+        <v>2276</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>687</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>688</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>689</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>690</v>
+      <c r="E28" s="34" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>691</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>694</v>
+      <c r="E29" s="34" t="s">
+        <v>2304</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>695</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="C30" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="D30" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>698</v>
+      <c r="E30" s="34" t="s">
+        <v>2278</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>699</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="13" t="s">
         <v>700</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>702</v>
+      <c r="E31" s="34" t="s">
+        <v>2294</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>703</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="C32" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="E32" s="34" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="11" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="11" t="s">
+      <c r="B33" s="12" t="s">
         <v>707</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="C33" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>709</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="E33" s="34" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="11" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="11" t="s">
+      <c r="B34" s="12" t="s">
         <v>711</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>712</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>713</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="E34" s="34" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="11" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>715</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>717</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="E35" s="34" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="11" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="11" t="s">
+      <c r="B36" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="C36" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>721</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="E36" s="34" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="11" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="11" t="s">
+      <c r="B37" s="12" t="s">
         <v>723</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="C37" s="13" t="s">
         <v>724</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>725</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="E37" s="34" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="11" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="11" t="s">
+      <c r="B38" s="12" t="s">
         <v>727</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="C38" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>729</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="E38" s="34" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="11" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="11" t="s">
+      <c r="B39" s="12" t="s">
         <v>731</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="C39" s="13" t="s">
         <v>732</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="D39" s="13" t="s">
         <v>733</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="E39" s="34" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="11" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="11" t="s">
+      <c r="B40" s="12" t="s">
         <v>735</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="C40" s="13" t="s">
         <v>736</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>737</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="E40" s="34" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="11" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="11" t="s">
+      <c r="B41" s="12" t="s">
         <v>739</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="C41" s="13" t="s">
         <v>740</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="D41" s="13" t="s">
         <v>741</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="E41" s="34" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="11" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="11" t="s">
+      <c r="B42" s="12" t="s">
         <v>743</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="C42" s="13" t="s">
         <v>744</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="D42" s="13" t="s">
         <v>745</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" s="34" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="11">
         <v>84842603531</v>
       </c>
       <c r="B43" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="D43" s="13" t="s">
         <v>748</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="E43" s="34" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="11" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="11" t="s">
+      <c r="B44" s="12" t="s">
         <v>750</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="C44" s="13" t="s">
         <v>751</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="D44" s="13" t="s">
         <v>752</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="E44" s="34" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="11" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="11" t="s">
+      <c r="B45" s="12" t="s">
         <v>754</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="C45" s="13" t="s">
         <v>755</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="D45" s="13" t="s">
         <v>756</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="E45" s="34" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="11" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="11" t="s">
+      <c r="B46" s="12" t="s">
         <v>758</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="C46" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>760</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="E46" s="34" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="11" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="11" t="s">
+      <c r="B47" s="12" t="s">
         <v>762</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="C47" s="13" t="s">
         <v>763</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="D47" s="13" t="s">
         <v>764</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="E47" s="34" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="11" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="11" t="s">
+      <c r="B48" s="12" t="s">
         <v>766</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="C48" s="13" t="s">
         <v>767</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="D48" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="E48" s="34" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="11" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="11" t="s">
+      <c r="B49" s="12" t="s">
         <v>770</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="C49" s="13" t="s">
         <v>771</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="D49" s="13" t="s">
         <v>772</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="E49" s="34" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="11" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="11" t="s">
+      <c r="B50" s="12" t="s">
         <v>774</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="C50" s="13" t="s">
         <v>775</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>776</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="E50" s="34" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="11" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="11" t="s">
+      <c r="B51" s="12" t="s">
         <v>778</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="C51" s="13" t="s">
         <v>779</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="D51" s="13" t="s">
         <v>780</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>781</v>
+      <c r="E51" s="34" t="s">
+        <v>2283</v>
       </c>
     </row>
   </sheetData>
@@ -11420,87 +11742,87 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>782</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>783</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>784</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>785</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>786</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>787</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>788</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>789</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>790</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>791</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>793</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>794</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>795</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>796</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>797</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>798</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>799</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>800</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>801</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -11508,271 +11830,271 @@
         <v>84842603104</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>802</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>803</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>804</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>805</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>806</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>807</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>808</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>809</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>810</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>811</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>812</v>
-      </c>
       <c r="E9" s="13" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>813</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>814</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>815</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>816</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>817</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>818</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>819</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>820</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>821</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>822</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>823</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>824</v>
-      </c>
       <c r="E12" s="13" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>825</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>826</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>827</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>828</v>
-      </c>
       <c r="E13" s="13" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>829</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>830</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>831</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>832</v>
-      </c>
       <c r="E14" s="13" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>833</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>834</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>835</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>836</v>
-      </c>
       <c r="E15" s="13" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>837</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>838</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>839</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>840</v>
-      </c>
       <c r="E16" s="13" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>841</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>843</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>844</v>
-      </c>
       <c r="E17" s="13" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>845</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>846</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>847</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>848</v>
-      </c>
       <c r="E18" s="13" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>849</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>850</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>851</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>852</v>
-      </c>
       <c r="E19" s="13" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>853</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>854</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>855</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>856</v>
-      </c>
       <c r="E20" s="13" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>857</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>858</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>859</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>860</v>
-      </c>
       <c r="E21" s="13" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>861</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>862</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>863</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>864</v>
-      </c>
       <c r="E22" s="13" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -11780,50 +12102,50 @@
         <v>84842603214</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>865</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>866</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>867</v>
-      </c>
       <c r="E23" s="13" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>868</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>869</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>870</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>871</v>
-      </c>
       <c r="E24" s="13" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>872</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>873</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>875</v>
-      </c>
       <c r="E25" s="13" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -11831,277 +12153,277 @@
         <v>84842603627</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>876</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>877</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>878</v>
-      </c>
       <c r="E26" s="13" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>879</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="C27" s="13" t="s">
         <v>880</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>881</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>882</v>
-      </c>
       <c r="E27" s="13" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>883</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>884</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>885</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>886</v>
-      </c>
       <c r="E28" s="13" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="11" t="s">
+        <v>886</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>887</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>888</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>889</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>890</v>
-      </c>
       <c r="E29" s="13" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>891</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="C30" s="13" t="s">
         <v>892</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="D30" s="13" t="s">
         <v>893</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>894</v>
-      </c>
       <c r="E30" s="13" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="11" t="s">
+        <v>894</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>895</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="13" t="s">
         <v>896</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>897</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>898</v>
-      </c>
       <c r="E31" s="13" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="11" t="s">
+        <v>898</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>899</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="C32" s="13" t="s">
         <v>900</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>901</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>902</v>
-      </c>
       <c r="E32" s="13" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>903</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="C33" s="13" t="s">
         <v>904</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>905</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>906</v>
-      </c>
       <c r="E33" s="13" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>907</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>908</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>909</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>910</v>
-      </c>
       <c r="E34" s="13" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>911</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>912</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>913</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>914</v>
-      </c>
       <c r="E35" s="13" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="11" t="s">
+        <v>914</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>915</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="C36" s="13" t="s">
         <v>916</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>917</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>918</v>
-      </c>
       <c r="E36" s="13" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>919</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="C37" s="13" t="s">
         <v>920</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>921</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>922</v>
-      </c>
       <c r="E37" s="13" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="11" t="s">
+        <v>922</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>923</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="C38" s="13" t="s">
         <v>924</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>925</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>926</v>
-      </c>
       <c r="E38" s="13" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="11" t="s">
+        <v>926</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>927</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="C39" s="13" t="s">
         <v>928</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="D39" s="13" t="s">
         <v>929</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>930</v>
-      </c>
       <c r="E39" s="13" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>931</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="C40" s="13" t="s">
         <v>932</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>933</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>934</v>
-      </c>
       <c r="E40" s="13" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="11" t="s">
+        <v>934</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>935</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="C41" s="13" t="s">
         <v>936</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="D41" s="13" t="s">
         <v>937</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>938</v>
-      </c>
       <c r="E41" s="13" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -12109,101 +12431,101 @@
         <v>84842603905</v>
       </c>
       <c r="B42" s="12" t="s">
+        <v>938</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="D42" s="13" t="s">
         <v>940</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>941</v>
-      </c>
       <c r="E42" s="13" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>942</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="C43" s="13" t="s">
         <v>943</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="D43" s="13" t="s">
         <v>944</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>945</v>
-      </c>
       <c r="E43" s="13" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>946</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="C44" s="13" t="s">
         <v>947</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="D44" s="13" t="s">
         <v>948</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>949</v>
-      </c>
       <c r="E44" s="13" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="11" t="s">
+        <v>949</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>950</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="C45" s="13" t="s">
         <v>951</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="D45" s="13" t="s">
         <v>952</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>953</v>
-      </c>
       <c r="E45" s="13" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>954</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="C46" s="13" t="s">
         <v>955</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>956</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>957</v>
-      </c>
       <c r="E46" s="13" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="11" t="s">
+        <v>957</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>958</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="C47" s="13" t="s">
         <v>959</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="D47" s="13" t="s">
         <v>960</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>961</v>
-      </c>
       <c r="E47" s="13" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -12211,67 +12533,67 @@
         <v>84842603243</v>
       </c>
       <c r="B48" s="12" t="s">
+        <v>961</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>962</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="D48" s="13" t="s">
         <v>963</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>964</v>
-      </c>
       <c r="E48" s="13" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="C49" s="13" t="s">
         <v>966</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="D49" s="13" t="s">
         <v>967</v>
       </c>
-      <c r="D49" s="13" t="s">
-        <v>968</v>
-      </c>
       <c r="E49" s="13" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="11" t="s">
+        <v>968</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="C50" s="13" t="s">
         <v>970</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>971</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>972</v>
-      </c>
       <c r="E50" s="13" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="11" t="s">
+        <v>972</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="C51" s="13" t="s">
         <v>974</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="D51" s="13" t="s">
         <v>975</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>976</v>
-      </c>
       <c r="E51" s="13" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
   </sheetData>
@@ -12316,852 +12638,852 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="11" t="s">
+        <v>976</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>977</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>978</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>979</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>980</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="11" t="s">
+        <v>980</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>981</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>982</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>983</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>984</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="11" t="s">
+        <v>984</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>985</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>986</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>987</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>988</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="11" t="s">
+        <v>988</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>989</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>991</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>992</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
+        <v>992</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>993</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>994</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>995</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>996</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="11" t="s">
+        <v>996</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>997</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>998</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>999</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>1000</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>1001</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>1002</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>1003</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>1004</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>1005</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>1006</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>1007</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>1008</v>
-      </c>
       <c r="E9" s="13" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>1009</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>1010</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>1011</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>1012</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>1013</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>1014</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>1015</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>1016</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>1017</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>1018</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>1019</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>1020</v>
-      </c>
       <c r="E12" s="13" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>1021</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>1022</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>1023</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>1024</v>
-      </c>
       <c r="E13" s="13" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>1025</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>1026</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>1027</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>1028</v>
-      </c>
       <c r="E14" s="13" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>1029</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>1030</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>1031</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>1032</v>
-      </c>
       <c r="E15" s="13" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>1033</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>1034</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>1035</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>1036</v>
-      </c>
       <c r="E16" s="13" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>1037</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>1038</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>1039</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>1040</v>
-      </c>
       <c r="E17" s="13" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="12" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>1041</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>1042</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>1043</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>1044</v>
-      </c>
       <c r="E18" s="13" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="12" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>1045</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>1046</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>1047</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>1048</v>
-      </c>
       <c r="E19" s="13" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="12" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>1049</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>1050</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>1051</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>1052</v>
-      </c>
       <c r="E20" s="13" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="12" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>1053</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>1054</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>1055</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>1056</v>
-      </c>
       <c r="E21" s="13" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>1058</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>1059</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>1060</v>
-      </c>
       <c r="E22" s="13" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="12" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>1061</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>1062</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>1063</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>1064</v>
-      </c>
       <c r="E23" s="13" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="12" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>1065</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>1066</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>1067</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>1068</v>
-      </c>
       <c r="E24" s="13" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="12" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>1069</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>1070</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>1071</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>1072</v>
-      </c>
       <c r="E25" s="13" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>1073</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="C26" s="13" t="s">
         <v>1074</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>1075</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>1076</v>
-      </c>
       <c r="E26" s="13" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="12" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>1077</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="C27" s="13" t="s">
         <v>1078</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>1079</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>1080</v>
-      </c>
       <c r="E27" s="13" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="12" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>1081</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>1082</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>1083</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>1084</v>
-      </c>
       <c r="E28" s="13" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="12" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>1085</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>1086</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>1087</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>1088</v>
-      </c>
       <c r="E29" s="13" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="12" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>1089</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="C30" s="13" t="s">
         <v>1090</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="D30" s="13" t="s">
         <v>1091</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>1092</v>
-      </c>
       <c r="E30" s="13" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="12" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>1093</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="13" t="s">
         <v>1094</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>1095</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>1096</v>
-      </c>
       <c r="E31" s="13" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="12" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>1097</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="C32" s="13" t="s">
         <v>1098</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>1099</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>1100</v>
-      </c>
       <c r="E32" s="13" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="12" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>1101</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="C33" s="13" t="s">
         <v>1102</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>1103</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>1104</v>
-      </c>
       <c r="E33" s="13" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="12" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>1105</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>1106</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>1107</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>1108</v>
-      </c>
       <c r="E34" s="13" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="12" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>1109</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>1110</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>1111</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>1112</v>
-      </c>
       <c r="E35" s="13" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="12" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>1113</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="C36" s="13" t="s">
         <v>1114</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>1115</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>1116</v>
-      </c>
       <c r="E36" s="13" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>1117</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="C37" s="13" t="s">
         <v>1118</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>1119</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>1120</v>
-      </c>
       <c r="E37" s="13" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="11" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>1121</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="C38" s="13" t="s">
         <v>1122</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>1123</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>1124</v>
-      </c>
       <c r="E38" s="13" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="11" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>1125</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="C39" s="13" t="s">
         <v>1126</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="D39" s="13" t="s">
         <v>1127</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>1128</v>
-      </c>
       <c r="E39" s="13" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="11" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>1129</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="C40" s="13" t="s">
         <v>1130</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>1131</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>1132</v>
-      </c>
       <c r="E40" s="13" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="11" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>1133</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="C41" s="13" t="s">
         <v>1134</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="D41" s="13" t="s">
         <v>1135</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>1136</v>
-      </c>
       <c r="E41" s="13" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="11" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>1137</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="C42" s="13" t="s">
         <v>1138</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="D42" s="13" t="s">
         <v>1139</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>1140</v>
-      </c>
       <c r="E42" s="13" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>1141</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="C43" s="13" t="s">
         <v>1142</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="D43" s="13" t="s">
         <v>1143</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>1144</v>
-      </c>
       <c r="E43" s="13" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>1145</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="C44" s="13" t="s">
         <v>1146</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="D44" s="13" t="s">
         <v>1147</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>1148</v>
-      </c>
       <c r="E44" s="13" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="11" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>1149</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="C45" s="13" t="s">
         <v>1150</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="D45" s="13" t="s">
         <v>1151</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>1152</v>
-      </c>
       <c r="E45" s="13" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="11" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>1153</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="C46" s="13" t="s">
         <v>1154</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>1155</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>1156</v>
-      </c>
       <c r="E46" s="13" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>1157</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="C47" s="13" t="s">
         <v>1158</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="D47" s="13" t="s">
         <v>1159</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>1160</v>
-      </c>
       <c r="E47" s="13" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>1161</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="C48" s="13" t="s">
         <v>1162</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="D48" s="13" t="s">
         <v>1163</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>1164</v>
-      </c>
       <c r="E48" s="13" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="11" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>1165</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="C49" s="13" t="s">
         <v>1166</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="D49" s="13" t="s">
         <v>1167</v>
       </c>
-      <c r="D49" s="13" t="s">
-        <v>1168</v>
-      </c>
       <c r="E49" s="13" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>1169</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="C50" s="13" t="s">
         <v>1170</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>1171</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>1172</v>
-      </c>
       <c r="E50" s="13" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="11" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>1173</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="C51" s="13" t="s">
         <v>1174</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="D51" s="13" t="s">
         <v>1175</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>1176</v>
-      </c>
       <c r="E51" s="13" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
   </sheetData>
@@ -13173,8 +13495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:E51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -13206,750 +13528,750 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>1177</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>1178</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>1179</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>1180</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="12" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>1181</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>1182</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>1183</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>1184</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="12" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>1185</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>1186</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>1187</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>1188</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="12" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>1189</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>1190</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>1191</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>1192</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>1193</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>1194</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>1195</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>1196</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="11" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>1197</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>1198</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>1199</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>1200</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>1201</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>1202</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>1203</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>1204</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="11" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>1205</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>1206</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>1207</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>1208</v>
-      </c>
       <c r="E9" s="13" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="11" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>1209</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>1210</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>1211</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>1212</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>1213</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>1214</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>1215</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>1216</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>1217</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>1218</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>1219</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>1220</v>
-      </c>
       <c r="E12" s="13" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>1221</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>1222</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>1223</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>1224</v>
-      </c>
       <c r="E13" s="13" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>1225</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>1226</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>1227</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>1228</v>
-      </c>
       <c r="E14" s="13" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>1229</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>1230</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>1231</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>1232</v>
-      </c>
       <c r="E15" s="13" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>1233</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>1234</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>1235</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>1236</v>
-      </c>
       <c r="E16" s="13" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>1237</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>1238</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>1239</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>1240</v>
-      </c>
       <c r="E17" s="13" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>1241</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>1242</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>1243</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>1244</v>
-      </c>
       <c r="E18" s="13" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>1245</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>1246</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>1247</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>1248</v>
-      </c>
       <c r="E19" s="13" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="11" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>1249</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>1251</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>1252</v>
-      </c>
       <c r="E20" s="13" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>1253</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>1254</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>1255</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>1256</v>
-      </c>
       <c r="E21" s="13" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="11" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>1257</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>1258</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>1259</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>1260</v>
-      </c>
       <c r="E22" s="13" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="11" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>1261</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>1263</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>1264</v>
-      </c>
       <c r="E23" s="13" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="11" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>1265</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>1266</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>1267</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>1268</v>
-      </c>
       <c r="E24" s="13" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="11" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>1269</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>1270</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>1271</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>1272</v>
-      </c>
       <c r="E25" s="13" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="12" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>1273</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="C26" s="13" t="s">
         <v>1274</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>1275</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>1981</v>
+      <c r="E26" s="26" t="s">
+        <v>1980</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="12" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>1277</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="C27" s="13" t="s">
         <v>1278</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>1279</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>1280</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>1982</v>
+      <c r="E27" s="26" t="s">
+        <v>1981</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="12" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>1281</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>1282</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>1283</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>1284</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>2019</v>
+      <c r="E28" s="26" t="s">
+        <v>2018</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="12" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>1285</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>1286</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>1287</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>1984</v>
+      <c r="E29" s="26" t="s">
+        <v>1983</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="11" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>1289</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="C30" s="13" t="s">
         <v>1290</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="D30" s="13" t="s">
         <v>1291</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>1292</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>1983</v>
+      <c r="E30" s="26" t="s">
+        <v>1982</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="11" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>1293</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="13" t="s">
         <v>1294</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>1295</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>1296</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>1994</v>
+      <c r="E31" s="26" t="s">
+        <v>1993</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="11" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>1297</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="C32" s="13" t="s">
         <v>1298</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>1299</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>1300</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>1985</v>
+      <c r="E32" s="26" t="s">
+        <v>1984</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="11" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>1301</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="C33" s="13" t="s">
         <v>1302</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>1303</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>1304</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>1980</v>
+      <c r="E33" s="26" t="s">
+        <v>1979</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="11" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>1305</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>1306</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>1307</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>1308</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>1977</v>
+      <c r="E34" s="26" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="11" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>1309</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>1310</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>1311</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>1312</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>1978</v>
+      <c r="E35" s="26" t="s">
+        <v>1977</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="11" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>1313</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="C36" s="13" t="s">
         <v>1314</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>1315</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>1979</v>
+      <c r="E36" s="26" t="s">
+        <v>1978</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="11" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>1317</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="C37" s="13" t="s">
         <v>1318</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>1319</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>1973</v>
+      <c r="E37" s="26" t="s">
+        <v>1972</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="11" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>1321</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="C38" s="13" t="s">
         <v>1322</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>1323</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>1975</v>
+      <c r="E38" s="26" t="s">
+        <v>1974</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="11" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>1325</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="C39" s="13" t="s">
         <v>1326</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="D39" s="13" t="s">
         <v>1327</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>1972</v>
+      <c r="E39" s="26" t="s">
+        <v>1971</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="11" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>1329</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="C40" s="13" t="s">
         <v>1330</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>1331</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>1974</v>
+      <c r="E40" s="26" t="s">
+        <v>1973</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="11" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>1333</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="C41" s="13" t="s">
         <v>1334</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="D41" s="13" t="s">
         <v>1335</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>1976</v>
+      <c r="E41" s="26" t="s">
+        <v>1975</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="11" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>1337</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="C42" s="13" t="s">
         <v>1338</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="D42" s="13" t="s">
         <v>1339</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>1991</v>
+      <c r="E42" s="26" t="s">
+        <v>1990</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="11" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>1341</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="C43" s="13" t="s">
         <v>1342</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="D43" s="13" t="s">
         <v>1343</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>1344</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>1992</v>
+      <c r="E43" s="26" t="s">
+        <v>1991</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="11" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>1345</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="C44" s="13" t="s">
         <v>1346</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="D44" s="13" t="s">
         <v>1347</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>1995</v>
+      <c r="E44" s="26" t="s">
+        <v>1994</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="11" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>1349</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="C45" s="13" t="s">
         <v>1350</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="D45" s="13" t="s">
         <v>1351</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>1993</v>
+      <c r="E45" s="26" t="s">
+        <v>1992</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -13957,101 +14279,101 @@
         <v>84842603451</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>1353</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>1354</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>1988</v>
+      <c r="E46" s="26" t="s">
+        <v>1987</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="12" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>1356</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="C47" s="13" t="s">
         <v>1357</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="D47" s="13" t="s">
         <v>1358</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>1359</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>1990</v>
+      <c r="E47" s="26" t="s">
+        <v>1989</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="12" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>1360</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="C48" s="13" t="s">
         <v>1361</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="D48" s="13" t="s">
         <v>1362</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>1363</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>1996</v>
+      <c r="E48" s="26" t="s">
+        <v>1995</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="12" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>1364</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="C49" s="13" t="s">
         <v>1365</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="D49" s="13" t="s">
         <v>1366</v>
       </c>
-      <c r="D49" s="13" t="s">
-        <v>1367</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>1989</v>
+      <c r="E49" s="26" t="s">
+        <v>1988</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="12" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>1368</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="C50" s="13" t="s">
         <v>1369</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>1370</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>1986</v>
+      <c r="E50" s="26" t="s">
+        <v>1985</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="12" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>1372</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="C51" s="13" t="s">
         <v>1373</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="D51" s="13" t="s">
         <v>1374</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>1375</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>1987</v>
+      <c r="E51" s="26" t="s">
+        <v>1986</v>
       </c>
     </row>
   </sheetData>
@@ -14064,7 +14386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -14097,104 +14419,104 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="11" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>1377</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>1378</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>1379</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="11" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>1380</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>1381</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>1382</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>1383</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>1384</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>1385</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>1386</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>1387</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="11" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>1388</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>1389</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>1390</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>1391</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>1392</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>1393</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>1394</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>1395</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="11" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>1396</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>1397</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>1398</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>1399</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -14202,375 +14524,375 @@
         <v>84842603475</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>1400</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>1401</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>1402</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="11" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>1403</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>1404</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>1405</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>1406</v>
-      </c>
       <c r="E9" s="13" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="11" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>1407</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>1408</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>1409</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>1410</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>1411</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>1412</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>1413</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>1414</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>1415</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>1416</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>1417</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>1418</v>
-      </c>
       <c r="E12" s="13" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>1419</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>1420</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>1421</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>1422</v>
-      </c>
       <c r="E13" s="13" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>1423</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>1424</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>1425</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>1426</v>
-      </c>
       <c r="E14" s="13" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>1427</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>1428</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>1429</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>1430</v>
-      </c>
       <c r="E15" s="13" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>1431</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>1432</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>1433</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>1434</v>
-      </c>
       <c r="E16" s="13" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="11" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>1435</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>1436</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>1437</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>1438</v>
-      </c>
       <c r="E17" s="13" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="11" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>1439</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>1440</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>1441</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>1442</v>
-      </c>
       <c r="E18" s="13" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="11" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>1443</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>1444</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>1445</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>1446</v>
-      </c>
       <c r="E19" s="13" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="11" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>1447</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>1448</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>1449</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>1450</v>
-      </c>
       <c r="E20" s="13" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="11" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>1451</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>1452</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>1453</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>1454</v>
-      </c>
       <c r="E21" s="13" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="11" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>1455</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>1456</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>1457</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>1458</v>
-      </c>
       <c r="E22" s="13" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="11" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>1459</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>1460</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>1461</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>1462</v>
-      </c>
       <c r="E23" s="13" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="11" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>1463</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>1464</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>1465</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>1466</v>
-      </c>
       <c r="E24" s="13" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="11" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>1467</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>1468</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>1469</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>1470</v>
-      </c>
       <c r="E25" s="13" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="11" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>1471</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="C26" s="13" t="s">
         <v>1472</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>1473</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>1474</v>
-      </c>
       <c r="E26" s="13" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>663</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="C27" s="13" t="s">
         <v>664</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>666</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>2275</v>
-      </c>
-      <c r="F27" s="30"/>
+      <c r="E27" s="30" t="s">
+        <v>2274</v>
+      </c>
+      <c r="F27" s="29"/>
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="11" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>1479</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>1480</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>1481</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>1482</v>
-      </c>
       <c r="E28" s="13" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="11" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>1483</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>1484</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>1485</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>1486</v>
-      </c>
       <c r="E29" s="13" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="12"/>
@@ -14579,376 +14901,376 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="11" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>1487</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="C30" s="13" t="s">
         <v>1488</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="D30" s="13" t="s">
         <v>1489</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>1490</v>
-      </c>
       <c r="E30" s="13" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="11" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>1491</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="13" t="s">
         <v>1492</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>1493</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>1494</v>
-      </c>
       <c r="E31" s="13" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="11" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>1495</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="C32" s="13" t="s">
         <v>1496</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>1497</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>1498</v>
-      </c>
       <c r="E32" s="13" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="11" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>1499</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="C33" s="13" t="s">
         <v>1500</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>1501</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>1502</v>
-      </c>
       <c r="E33" s="13" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="11" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>1503</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>1504</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>1505</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>1506</v>
-      </c>
       <c r="E34" s="13" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="11" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>1507</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>1508</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>1509</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>1510</v>
-      </c>
       <c r="E35" s="13" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="11" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>1511</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="C36" s="13" t="s">
         <v>1512</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>1513</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>1514</v>
-      </c>
       <c r="E36" s="13" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="11" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>1515</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="C37" s="13" t="s">
         <v>1516</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>1517</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>1518</v>
-      </c>
       <c r="E37" s="13" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="12" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>1519</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="C38" s="13" t="s">
         <v>1520</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>1521</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>1522</v>
-      </c>
       <c r="E38" s="13" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="12" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>1523</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="C39" s="13" t="s">
         <v>1524</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="D39" s="13" t="s">
         <v>1525</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>1526</v>
-      </c>
       <c r="E39" s="13" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="12" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>1527</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="C40" s="13" t="s">
         <v>1528</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>1529</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>1530</v>
-      </c>
       <c r="E40" s="13" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="12" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>1531</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="C41" s="13" t="s">
         <v>1532</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="D41" s="13" t="s">
         <v>1533</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>1534</v>
-      </c>
       <c r="E41" s="13" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="12" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>1535</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="C42" s="13" t="s">
         <v>1536</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="D42" s="13" t="s">
         <v>1537</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>1538</v>
-      </c>
       <c r="E42" s="13" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="12" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>1539</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="C43" s="13" t="s">
         <v>1540</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="D43" s="13" t="s">
         <v>1541</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>1542</v>
-      </c>
       <c r="E43" s="13" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="12" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>1543</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="C44" s="13" t="s">
         <v>1544</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="D44" s="13" t="s">
         <v>1545</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>1546</v>
-      </c>
       <c r="E44" s="13" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="12" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>1547</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="C45" s="13" t="s">
         <v>1548</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="D45" s="13" t="s">
         <v>1549</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>1550</v>
-      </c>
       <c r="E45" s="13" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="12" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>1551</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="C46" s="13" t="s">
         <v>1552</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>1553</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>1554</v>
-      </c>
       <c r="E46" s="13" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="12" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>1555</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="C47" s="13" t="s">
         <v>1556</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="D47" s="13" t="s">
         <v>1557</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>1558</v>
-      </c>
       <c r="E47" s="13" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="12" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>1559</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="C48" s="13" t="s">
         <v>1560</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="D48" s="13" t="s">
         <v>1561</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>1562</v>
-      </c>
       <c r="E48" s="13" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="12" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>1563</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="C49" s="13" t="s">
         <v>1564</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="D49" s="13" t="s">
         <v>1565</v>
       </c>
-      <c r="D49" s="13" t="s">
-        <v>1566</v>
-      </c>
       <c r="E49" s="13" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="12" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>1567</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="C50" s="13" t="s">
         <v>1568</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>1569</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>1570</v>
-      </c>
       <c r="E50" s="13" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="12" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>1571</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="C51" s="13" t="s">
         <v>1572</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="D51" s="13" t="s">
         <v>1573</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>1574</v>
-      </c>
       <c r="E51" s="13" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
   </sheetData>
@@ -14960,7 +15282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -14993,274 +15315,274 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="11" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>1583</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>1584</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>1585</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>1586</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="11" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>1587</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>1588</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>1589</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>1590</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="11" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>1575</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>1576</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>1577</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>1578</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="11" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>1579</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>1580</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>1581</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>1582</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>1591</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>1592</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>1593</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>1594</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="11" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>1595</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>1596</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>1597</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>1598</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>1599</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>1600</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>1601</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>1602</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="11" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>1603</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>1604</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>1605</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>1606</v>
-      </c>
       <c r="E9" s="13" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="11" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>1607</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>1608</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>1609</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>1610</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>1611</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>1612</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>1613</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>1614</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>1615</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>1616</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>1617</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>1618</v>
-      </c>
       <c r="E12" s="13" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>1619</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>1620</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>1621</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>1622</v>
-      </c>
       <c r="E13" s="13" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>1623</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>1624</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>1625</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>1626</v>
-      </c>
       <c r="E14" s="13" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>1627</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>1628</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>1629</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>1630</v>
-      </c>
       <c r="E15" s="13" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>1631</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>1632</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>1633</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>1634</v>
-      </c>
       <c r="E16" s="13" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="11" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>1635</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>1636</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>1637</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>1638</v>
-      </c>
       <c r="E17" s="13" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -15268,186 +15590,186 @@
         <v>84842603495</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>1639</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>1640</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>1641</v>
-      </c>
       <c r="E18" s="13" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="11" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>1642</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>1643</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>1644</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>1645</v>
-      </c>
       <c r="E19" s="13" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="11" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>1646</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>1647</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>1648</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>1649</v>
-      </c>
       <c r="E20" s="13" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="11" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>1650</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>1651</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>1652</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>1653</v>
-      </c>
       <c r="E21" s="13" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="11" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>1654</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>1655</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>1656</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>1657</v>
-      </c>
       <c r="E22" s="13" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="11" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>1658</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>1659</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>1660</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>1661</v>
-      </c>
       <c r="E23" s="13" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="11" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>1662</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>1663</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>1664</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>1665</v>
-      </c>
       <c r="E24" s="13" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="11" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>1666</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>1667</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>1668</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>1669</v>
-      </c>
       <c r="E25" s="13" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="11" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>1670</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="C26" s="13" t="s">
         <v>1671</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>1672</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>1673</v>
-      </c>
       <c r="E26" s="13" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="11" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>1674</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="C27" s="13" t="s">
         <v>1675</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>1676</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>1677</v>
-      </c>
       <c r="E27" s="13" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>2223</v>
+      <c r="E28" s="26" t="s">
+        <v>2222</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="12"/>
@@ -15456,223 +15778,223 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="11" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>1682</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>1683</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>1684</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>1685</v>
-      </c>
       <c r="E29" s="13" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="12" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>1686</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="C30" s="13" t="s">
         <v>1687</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="D30" s="13" t="s">
         <v>1688</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>1689</v>
-      </c>
       <c r="E30" s="13" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="12" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>1690</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="13" t="s">
         <v>1691</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>1692</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>1693</v>
-      </c>
       <c r="E31" s="13" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="12" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>1694</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="C32" s="13" t="s">
         <v>1695</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>1696</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>1697</v>
-      </c>
       <c r="E32" s="13" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="12" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>1698</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="C33" s="13" t="s">
         <v>1699</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>1700</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>1701</v>
-      </c>
       <c r="E33" s="13" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="12" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>1702</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>1703</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>1704</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>1705</v>
-      </c>
       <c r="E34" s="13" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="12" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>1706</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>1707</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>1708</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>1709</v>
-      </c>
       <c r="E35" s="13" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="12" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>1710</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="C36" s="13" t="s">
         <v>1711</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>1712</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>1713</v>
-      </c>
       <c r="E36" s="13" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="12" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>1714</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="C37" s="13" t="s">
         <v>1715</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>1716</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>1717</v>
-      </c>
       <c r="E37" s="13" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="11" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>1718</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="C38" s="13" t="s">
         <v>1719</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>1720</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>1721</v>
-      </c>
       <c r="E38" s="13" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="11" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>1722</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="C39" s="13" t="s">
         <v>1723</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="D39" s="13" t="s">
         <v>1724</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>1725</v>
-      </c>
       <c r="E39" s="13" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="11" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>1726</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="C40" s="13" t="s">
         <v>1727</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>1728</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>1729</v>
-      </c>
       <c r="E40" s="13" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="11" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>1730</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="C41" s="13" t="s">
         <v>1731</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="D41" s="13" t="s">
         <v>1732</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>1733</v>
-      </c>
       <c r="E41" s="13" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -15680,169 +16002,169 @@
         <v>84842603772</v>
       </c>
       <c r="B42" s="12" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>1734</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="D42" s="13" t="s">
         <v>1735</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>1736</v>
-      </c>
       <c r="E42" s="13" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="11" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>1737</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="C43" s="13" t="s">
         <v>1738</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="D43" s="13" t="s">
         <v>1739</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>1740</v>
-      </c>
       <c r="E43" s="13" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="11" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>1741</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="C44" s="13" t="s">
         <v>1742</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="D44" s="13" t="s">
         <v>1743</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>1744</v>
-      </c>
       <c r="E44" s="13" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="11" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>1745</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="C45" s="13" t="s">
         <v>1746</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="D45" s="13" t="s">
         <v>1747</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>1748</v>
-      </c>
       <c r="E45" s="13" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="11" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>1749</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="C46" s="13" t="s">
         <v>1750</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>1751</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>1752</v>
-      </c>
       <c r="E46" s="13" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="11" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>1753</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="C47" s="13" t="s">
         <v>1754</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="D47" s="13" t="s">
         <v>1755</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>1756</v>
-      </c>
       <c r="E47" s="13" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="11" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>1757</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="C48" s="13" t="s">
         <v>1758</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="D48" s="13" t="s">
         <v>1759</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>1760</v>
-      </c>
       <c r="E48" s="13" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="11" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>1761</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="C49" s="13" t="s">
         <v>1762</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="D49" s="13" t="s">
         <v>1763</v>
       </c>
-      <c r="D49" s="13" t="s">
-        <v>1764</v>
-      </c>
       <c r="E49" s="13" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="11" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>1765</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="C50" s="13" t="s">
         <v>1766</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>1767</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>1768</v>
-      </c>
       <c r="E50" s="13" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="11" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>1769</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="C51" s="13" t="s">
         <v>1770</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="D51" s="13" t="s">
         <v>1771</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>1772</v>
-      </c>
       <c r="E51" s="13" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
   </sheetData>
